--- a/BackTest/2020-01-25 BackTest BTC.xlsx
+++ b/BackTest/2020-01-25 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10516,7 +10516,7 @@
         <v>29.0210737</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>27.49250518</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>30.94109503</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>32.60449503</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>32.60449503</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>29.37139503</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>29.69339503</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>35.38192972</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>35.26372972</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>35.28562972</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>36.07902972</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>36.36052972</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>37.67052972</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>38.49712972</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>41.82492972</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>38.48252972</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>38.55022972</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>38.11902972000001</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>38.79412972000001</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>38.79412972000001</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>35.02982972000001</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>35.79451071000001</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>35.75111071000001</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>35.75111071000001</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>35.73341071000002</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>33.11271071000003</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>36.11931071000004</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>35.71531071000003</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>35.71531071000003</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>35.00901071000003</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>35.13611071000003</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>35.14111071000004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>36.43141071000004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>32.18974666000004</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>32.91435273000004</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>32.18225273000004</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>31.90575273000004</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>32.86825273000004</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>34.67675273000004</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>40.88734420000004</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>42.61684417000004</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>42.61684417000004</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>43.99314417000004</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>43.36714417000005</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>42.40034420000005</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>42.40034420000005</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>41.85704420000005</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>40.24384420000005</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>38.60024420000005</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>40.63654420000005</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>40.36834420000005</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>40.36324420000005</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>40.13444420000005</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>38.05194420000004</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>39.66404420000004</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>40.44934420000004</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>39.14744420000004</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>40.58264420000004</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>40.37304420000004</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>40.37304420000004</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>40.17624420000003</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>40.17624420000003</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>39.74874420000003</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>39.60714420000004</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>38.40824420000003</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>38.40824420000003</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>36.76378074000004</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>37.17278074000004</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>35.62648074000003</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>39.52138074000003</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>39.52138074000003</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>39.53368074000004</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>40.68238074000004</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>39.80448074000005</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>40.41708074000005</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>39.44468074000005</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>39.44468074000005</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>33.66698074000004</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>33.30588074000004</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>33.65448074000004</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>33.65448074000004</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>57.66635201000005</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>57.78715201000006</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>58.29865201000005</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>58.21875201000005</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>52.90685201000005</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>52.34305201000005</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>52.34305201000005</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>52.39385201000005</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>52.64727681000005</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>53.03921532000005</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>52.14621532000005</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>51.16871532000005</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>50.28101532000005</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>51.19241532000005</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>50.45131532000005</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>50.59161532000005</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>48.11641532000005</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>48.14011532000005</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>48.14011532000005</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>47.48871532000005</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>47.48871532000005</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>48.76211532000005</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>48.98302230000005</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>47.94902230000005</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>47.64352134000005</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>45.58989956000005</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>45.58989956000005</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>45.58989956000005</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>45.33769956000005</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>45.41509956000004</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>45.33129956000005</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>46.58786735000005</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>46.60126735000004</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>46.61976735000005</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>46.60766735000005</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>49.93296735000006</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>48.41067345000005</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>51.61387345000006</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>51.58517345000006</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>48.07327345000006</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>48.27163235000006</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>48.25173235000006</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>47.55963235000006</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>46.93043235000006</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -37246,11 +37246,17 @@
         <v>-67.11628738999998</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>9640000</v>
+      </c>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37279,11 +37285,17 @@
         <v>-66.60238738999998</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>9635000</v>
+      </c>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37312,11 +37324,17 @@
         <v>-66.60238738999998</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37363,17 @@
         <v>-66.38488738999997</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37378,11 +37402,17 @@
         <v>-66.79658738999997</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>9649000</v>
+      </c>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37411,11 +37441,17 @@
         <v>-66.20578738999997</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37444,11 +37480,17 @@
         <v>-66.64228738999996</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>9649000</v>
+      </c>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37477,11 +37519,17 @@
         <v>-65.72308738999996</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>9643000</v>
+      </c>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37510,11 +37558,17 @@
         <v>-63.51311952999996</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>9644000</v>
+      </c>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37543,11 +37597,17 @@
         <v>-63.05451952999996</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37576,11 +37636,17 @@
         <v>-63.52091952999996</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37613,7 +37679,11 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37642,11 +37712,17 @@
         <v>-64.61921952999997</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>9645000</v>
+      </c>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37675,11 +37751,17 @@
         <v>-57.22431952999997</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>9644000</v>
+      </c>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37708,11 +37790,17 @@
         <v>-60.58490895999996</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>9647000</v>
+      </c>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37745,7 +37833,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37774,11 +37866,17 @@
         <v>-61.82290895999996</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>9638000</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37807,11 +37905,17 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>9632000</v>
+      </c>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37840,11 +37944,17 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>9631000</v>
+      </c>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37873,11 +37983,17 @@
         <v>-62.07060895999997</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>9631000</v>
+      </c>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37906,11 +38022,17 @@
         <v>-62.07060895999997</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>9632000</v>
+      </c>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37939,11 +38061,17 @@
         <v>-64.86650895999996</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>9632000</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37972,11 +38100,17 @@
         <v>-65.02971947999997</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>9630000</v>
+      </c>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38005,11 +38139,17 @@
         <v>-62.52612999999997</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>9627000</v>
+      </c>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38038,7 +38178,7 @@
         <v>-61.88022999999997</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1141" t="n">
         <v>9632000</v>
@@ -38046,7 +38186,7 @@
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1141" t="n">
@@ -38077,7 +38217,7 @@
         <v>-63.51264051999997</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1142" t="n">
         <v>9634000</v>
@@ -38116,7 +38256,7 @@
         <v>-63.51264051999997</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1143" t="n">
         <v>9630000</v>
@@ -38155,7 +38295,7 @@
         <v>-63.13024051999997</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1144" t="n">
         <v>9630000</v>
@@ -38194,7 +38334,7 @@
         <v>-65.49195090999997</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1145" t="n">
         <v>9634000</v>
@@ -38233,7 +38373,7 @@
         <v>-67.12455090999997</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
         <v>9633000</v>
@@ -38272,7 +38412,7 @@
         <v>-66.11294047999996</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>9630000</v>
@@ -38311,7 +38451,7 @@
         <v>-66.11294047999996</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1148" t="n">
         <v>9636000</v>
@@ -38350,7 +38490,7 @@
         <v>-66.75574047999996</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="n">
         <v>9636000</v>
@@ -38389,7 +38529,7 @@
         <v>-65.56804047999995</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1150" t="n">
         <v>9632000</v>
@@ -38428,7 +38568,7 @@
         <v>-62.75542541999995</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1151" t="n">
         <v>9637000</v>
@@ -38467,7 +38607,7 @@
         <v>-64.08273162999996</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1152" t="n">
         <v>9639000</v>
@@ -38506,7 +38646,7 @@
         <v>-63.30003162999996</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1153" t="n">
         <v>9637000</v>
@@ -38545,9 +38685,11 @@
         <v>-62.03123783999996</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9640000</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
@@ -38582,9 +38724,11 @@
         <v>-59.22463783999996</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9650000</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
@@ -38619,9 +38763,11 @@
         <v>-62.79453783999995</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9655000</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -38656,9 +38802,11 @@
         <v>-61.93343783999995</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -38693,9 +38841,11 @@
         <v>-54.96843783999995</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>9650000</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38730,9 +38880,11 @@
         <v>-48.49833783999995</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>9660000</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40136,7 +40288,7 @@
         <v>43.71341018000005</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -40173,7 +40325,7 @@
         <v>29.90706072000005</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -40210,7 +40362,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -40247,7 +40399,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -40284,7 +40436,7 @@
         <v>-8.050882559999952</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -40321,18 +40473,16 @@
         <v>-11.78918255999995</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1202" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1202" t="inlineStr"/>
       <c r="M1202" t="inlineStr"/>
     </row>
     <row r="1203">
@@ -40358,15 +40508,11 @@
         <v>-14.26588255999995</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40399,11 +40545,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40436,11 +40578,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40473,11 +40611,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40510,11 +40644,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40547,11 +40677,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40584,11 +40710,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40621,11 +40743,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40654,15 +40772,11 @@
         <v>-3.213701049999952</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40691,15 +40805,11 @@
         <v>-14.94863772999995</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40728,15 +40838,11 @@
         <v>-18.50363772999995</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40765,15 +40871,11 @@
         <v>-20.97143772999995</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40802,15 +40904,11 @@
         <v>-19.60739427999995</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40839,15 +40937,11 @@
         <v>-19.82099427999995</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40876,15 +40970,11 @@
         <v>-28.22379427999995</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40913,15 +41003,11 @@
         <v>-27.49099425999995</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40950,15 +41036,11 @@
         <v>-30.24760636999995</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40987,15 +41069,11 @@
         <v>-22.88820636999995</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41028,11 +41106,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41061,15 +41135,11 @@
         <v>-16.51424981999995</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41102,11 +41172,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41139,11 +41205,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41176,11 +41238,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41213,11 +41271,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41250,11 +41304,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41287,11 +41337,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41324,11 +41370,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41361,11 +41403,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41398,11 +41436,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41435,11 +41469,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41472,11 +41502,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41509,11 +41535,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41546,11 +41568,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41583,11 +41601,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41616,15 +41630,11 @@
         <v>0.540638270000053</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41653,15 +41663,11 @@
         <v>9.445838320000053</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41690,15 +41696,11 @@
         <v>9.445838320000053</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41727,15 +41729,11 @@
         <v>8.977238320000053</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41768,11 +41766,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41805,11 +41799,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41842,11 +41832,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41879,11 +41865,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41916,11 +41898,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41949,15 +41927,11 @@
         <v>7.425438320000054</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41990,11 +41964,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42023,15 +41993,11 @@
         <v>12.17794290000005</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42064,11 +42030,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42101,11 +42063,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42138,11 +42096,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42175,11 +42129,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1252" t="inlineStr"/>
       <c r="L1252" t="n">
         <v>1</v>
       </c>
@@ -42212,11 +42162,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42249,11 +42195,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42282,15 +42224,11 @@
         <v>10.00744290000006</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42319,15 +42257,11 @@
         <v>13.27664287000006</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42356,15 +42290,11 @@
         <v>12.21584287000006</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -42393,15 +42323,11 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -42430,15 +42356,11 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -42467,15 +42389,11 @@
         <v>15.18345296000006</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -42504,15 +42422,11 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -42541,15 +42455,11 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -42578,15 +42488,11 @@
         <v>13.49685707000006</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -42615,15 +42521,11 @@
         <v>10.50045707000006</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -42652,15 +42554,11 @@
         <v>13.73451483000006</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -42689,15 +42587,11 @@
         <v>5.500914830000056</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -42726,15 +42620,11 @@
         <v>5.500914830000056</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -42763,15 +42653,11 @@
         <v>5.590314830000056</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -42800,15 +42686,11 @@
         <v>3.820614830000056</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -42837,15 +42719,11 @@
         <v>-0.8272851699999437</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -42874,15 +42752,11 @@
         <v>-2.680785169999944</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -42911,15 +42785,11 @@
         <v>1.663314830000056</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -42948,15 +42818,11 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -42985,15 +42851,11 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43022,15 +42884,11 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43059,15 +42917,11 @@
         <v>3.958414880000056</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43096,15 +42950,11 @@
         <v>8.802514880000055</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43133,15 +42983,11 @@
         <v>4.611414880000056</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43170,15 +43016,11 @@
         <v>5.273114880000056</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43207,15 +43049,11 @@
         <v>11.21991488000005</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43244,15 +43082,11 @@
         <v>10.33431488000005</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43281,15 +43115,11 @@
         <v>10.33431488000005</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43318,15 +43148,11 @@
         <v>11.99101488000005</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43355,15 +43181,11 @@
         <v>13.40954276000005</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -43392,15 +43214,11 @@
         <v>13.40954276000005</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -43429,15 +43247,11 @@
         <v>13.19164276000005</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -43466,15 +43280,11 @@
         <v>14.74734833000005</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -43503,15 +43313,11 @@
         <v>13.75894833000005</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -43540,15 +43346,11 @@
         <v>12.02424833000005</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -43577,15 +43379,11 @@
         <v>13.85074856000005</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -43614,15 +43412,11 @@
         <v>13.24264856000005</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -43651,15 +43445,11 @@
         <v>13.42444856000006</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1292" t="inlineStr"/>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -43688,15 +43478,11 @@
         <v>12.30594856000005</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1293" t="inlineStr"/>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -43725,15 +43511,11 @@
         <v>12.45304856000005</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1294" t="inlineStr"/>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -43762,15 +43544,11 @@
         <v>12.45304856000005</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1295" t="inlineStr"/>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -43799,15 +43577,11 @@
         <v>14.54254856000005</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -43836,15 +43610,11 @@
         <v>14.59984856000005</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -43873,15 +43643,11 @@
         <v>14.59984856000005</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -43910,15 +43676,11 @@
         <v>9.125648560000053</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -43947,15 +43709,11 @@
         <v>9.150848560000053</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -43984,15 +43742,11 @@
         <v>10.41354856000005</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -44021,15 +43775,11 @@
         <v>10.10074856000005</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -44058,15 +43808,11 @@
         <v>11.49634856000005</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44095,15 +43841,11 @@
         <v>11.45534856000005</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44132,15 +43874,11 @@
         <v>13.00568612000005</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44169,15 +43907,11 @@
         <v>14.63868612000005</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44206,15 +43940,11 @@
         <v>19.72808612000005</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44243,15 +43973,11 @@
         <v>19.72808612000005</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44280,15 +44006,11 @@
         <v>14.81428612000005</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -44317,15 +44039,11 @@
         <v>16.94378607000005</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -44354,15 +44072,11 @@
         <v>27.85631409000005</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44391,15 +44105,11 @@
         <v>30.46131409000006</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44432,11 +44142,7 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44469,11 +44175,7 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44506,11 +44208,7 @@
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44539,15 +44237,11 @@
         <v>50.56229541000006</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44576,16 +44270,14 @@
         <v>50.86676097000006</v>
       </c>
       <c r="H1317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr"/>
+      <c r="L1317" t="n">
+        <v>1</v>
+      </c>
       <c r="M1317" t="inlineStr"/>
     </row>
     <row r="1318">
@@ -44611,7 +44303,7 @@
         <v>52.33766097000006</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -44644,7 +44336,7 @@
         <v>55.30676358000006</v>
       </c>
       <c r="H1319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -44677,7 +44369,7 @@
         <v>40.61166358000006</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -44710,7 +44402,7 @@
         <v>34.68526358000005</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -44743,7 +44435,7 @@
         <v>33.60456358000005</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -44776,7 +44468,7 @@
         <v>34.40127841000005</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -44809,7 +44501,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -44842,7 +44534,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -44875,7 +44567,7 @@
         <v>37.62907841000005</v>
       </c>
       <c r="H1326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -44908,7 +44600,7 @@
         <v>44.24657841000005</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -44941,7 +44633,7 @@
         <v>42.29498898000005</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -44974,7 +44666,7 @@
         <v>46.13622632000005</v>
       </c>
       <c r="H1329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -45007,7 +44699,7 @@
         <v>43.94110048000005</v>
       </c>
       <c r="H1330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -45040,7 +44732,7 @@
         <v>44.49210048000005</v>
       </c>
       <c r="H1331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -45073,7 +44765,7 @@
         <v>43.93620048000005</v>
       </c>
       <c r="H1332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -45106,7 +44798,7 @@
         <v>44.89355268000005</v>
       </c>
       <c r="H1333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -45139,7 +44831,7 @@
         <v>43.27065268000005</v>
       </c>
       <c r="H1334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -45172,7 +44864,7 @@
         <v>40.00645268000005</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -45205,7 +44897,7 @@
         <v>42.06265268000004</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -45238,7 +44930,7 @@
         <v>44.76325268000004</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -45271,7 +44963,7 @@
         <v>44.63545268000004</v>
       </c>
       <c r="H1338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -45304,7 +44996,7 @@
         <v>44.70665270000004</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
@@ -45337,7 +45029,7 @@
         <v>46.52125268000004</v>
       </c>
       <c r="H1340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
@@ -45370,7 +45062,7 @@
         <v>50.24651812000004</v>
       </c>
       <c r="H1341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
@@ -45480,6 +45172,6 @@
       <c r="M1344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BTC.xlsx
+++ b/BackTest/2020-01-25 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -12298,7 +12298,7 @@
         <v>35.00901071000003</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>35.13611071000003</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>35.14111071000004</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>36.43141071000004</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>32.18225273000004</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>42.40034420000005</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>40.36834420000005</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>40.36324420000005</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>40.13444420000005</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>38.05194420000004</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>39.66404420000004</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>40.44934420000004</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>39.14744420000004</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>40.58264420000004</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>40.37304420000004</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>40.37304420000004</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>40.17624420000003</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>40.17624420000003</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>39.74874420000003</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>39.60714420000004</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>38.40824420000003</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>38.40824420000003</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>36.76378074000004</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>37.17278074000004</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>35.62648074000003</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>39.52138074000003</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>39.52138074000003</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>39.53368074000004</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>40.68238074000004</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>39.80448074000005</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>40.41708074000005</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>39.44468074000005</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>39.44468074000005</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>33.66698074000004</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>33.30588074000004</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>33.65448074000004</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>33.65448074000004</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -37246,17 +37246,11 @@
         <v>-67.11628738999998</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1117" t="n">
-        <v>9640000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37285,17 +37279,11 @@
         <v>-66.60238738999998</v>
       </c>
       <c r="H1118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1118" t="n">
-        <v>9635000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37324,17 +37312,11 @@
         <v>-66.60238738999998</v>
       </c>
       <c r="H1119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37363,17 +37345,11 @@
         <v>-66.38488738999997</v>
       </c>
       <c r="H1120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37402,17 +37378,11 @@
         <v>-66.79658738999997</v>
       </c>
       <c r="H1121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1121" t="n">
-        <v>9649000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37441,17 +37411,11 @@
         <v>-66.20578738999997</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37480,17 +37444,11 @@
         <v>-66.64228738999996</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1123" t="n">
-        <v>9649000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37519,17 +37477,11 @@
         <v>-65.72308738999996</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1124" t="n">
-        <v>9643000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37558,17 +37510,11 @@
         <v>-63.51311952999996</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1125" t="n">
-        <v>9644000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37597,17 +37543,11 @@
         <v>-63.05451952999996</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1126" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37636,17 +37576,11 @@
         <v>-63.52091952999996</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37679,11 +37613,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37712,17 +37642,11 @@
         <v>-64.61921952999997</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>9645000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37751,17 +37675,11 @@
         <v>-57.22431952999997</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1130" t="n">
-        <v>9644000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37790,17 +37708,11 @@
         <v>-60.58490895999996</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>9647000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37833,11 +37745,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37866,17 +37774,11 @@
         <v>-61.82290895999996</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1133" t="n">
-        <v>9638000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37905,17 +37807,11 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1134" t="n">
-        <v>9632000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37944,17 +37840,11 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1135" t="n">
-        <v>9631000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37991,7 +37881,7 @@
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1136" t="n">
@@ -38061,11 +37951,9 @@
         <v>-64.86650895999996</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>9632000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38763,11 +38651,9 @@
         <v>-62.79453783999995</v>
       </c>
       <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>9655000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -38802,11 +38688,9 @@
         <v>-61.93343783999995</v>
       </c>
       <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>9648000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -38841,11 +38725,9 @@
         <v>-54.96843783999995</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>9650000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -38880,11 +38762,9 @@
         <v>-48.49833783999995</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>9660000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -40140,18 +40020,16 @@
         <v>10.09845111000005</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1193" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1193" t="inlineStr"/>
       <c r="M1193" t="inlineStr"/>
     </row>
     <row r="1194">
@@ -40177,15 +40055,11 @@
         <v>18.50254765000005</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40214,15 +40088,11 @@
         <v>25.64364698000005</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40251,15 +40121,11 @@
         <v>32.77795574000005</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40288,15 +40154,11 @@
         <v>43.71341018000005</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40329,11 +40191,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40366,11 +40224,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40403,11 +40257,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40436,15 +40286,11 @@
         <v>-8.050882559999952</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40477,12 +40323,10 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr"/>
+      <c r="L1202" t="n">
+        <v>1</v>
+      </c>
       <c r="M1202" t="inlineStr"/>
     </row>
     <row r="1203">
@@ -40772,7 +40616,7 @@
         <v>-3.213701049999952</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -40805,7 +40649,7 @@
         <v>-14.94863772999995</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -40838,7 +40682,7 @@
         <v>-18.50363772999995</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -40871,7 +40715,7 @@
         <v>-20.97143772999995</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -40904,7 +40748,7 @@
         <v>-19.60739427999995</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -40937,7 +40781,7 @@
         <v>-19.82099427999995</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -40970,7 +40814,7 @@
         <v>-28.22379427999995</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -41003,7 +40847,7 @@
         <v>-27.49099425999995</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -41036,7 +40880,7 @@
         <v>-30.24760636999995</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -41069,7 +40913,7 @@
         <v>-22.88820636999995</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -41135,7 +40979,7 @@
         <v>-16.51424981999995</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -41630,7 +41474,7 @@
         <v>0.540638270000053</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -41663,7 +41507,7 @@
         <v>9.445838320000053</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -41696,7 +41540,7 @@
         <v>9.445838320000053</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -41729,7 +41573,7 @@
         <v>8.977238320000053</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -41927,7 +41771,7 @@
         <v>7.425438320000054</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -41993,7 +41837,7 @@
         <v>12.17794290000005</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -42224,7 +42068,7 @@
         <v>10.00744290000006</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42257,7 +42101,7 @@
         <v>13.27664287000006</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42290,7 +42134,7 @@
         <v>12.21584287000006</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -42323,7 +42167,7 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -42356,7 +42200,7 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -42389,7 +42233,7 @@
         <v>15.18345296000006</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -42422,7 +42266,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -42455,7 +42299,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -42488,7 +42332,7 @@
         <v>13.49685707000006</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -42521,7 +42365,7 @@
         <v>10.50045707000006</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -42554,7 +42398,7 @@
         <v>13.73451483000006</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -42587,7 +42431,7 @@
         <v>5.500914830000056</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -42620,7 +42464,7 @@
         <v>5.500914830000056</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -42653,7 +42497,7 @@
         <v>5.590314830000056</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -42686,7 +42530,7 @@
         <v>3.820614830000056</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -42719,7 +42563,7 @@
         <v>-0.8272851699999437</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -42752,7 +42596,7 @@
         <v>-2.680785169999944</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -42785,7 +42629,7 @@
         <v>1.663314830000056</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -42818,7 +42662,7 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -42851,7 +42695,7 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -42884,7 +42728,7 @@
         <v>-0.4727851199999438</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -42917,7 +42761,7 @@
         <v>3.958414880000056</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -42950,7 +42794,7 @@
         <v>8.802514880000055</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -42983,7 +42827,7 @@
         <v>4.611414880000056</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43016,7 +42860,7 @@
         <v>5.273114880000056</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -43049,7 +42893,7 @@
         <v>11.21991488000005</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43082,7 +42926,7 @@
         <v>10.33431488000005</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -43115,7 +42959,7 @@
         <v>10.33431488000005</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -43148,7 +42992,7 @@
         <v>11.99101488000005</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -43181,7 +43025,7 @@
         <v>13.40954276000005</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -43214,7 +43058,7 @@
         <v>13.40954276000005</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -43247,7 +43091,7 @@
         <v>13.19164276000005</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -43280,7 +43124,7 @@
         <v>14.74734833000005</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -43313,7 +43157,7 @@
         <v>13.75894833000005</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -43346,7 +43190,7 @@
         <v>12.02424833000005</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -43379,7 +43223,7 @@
         <v>13.85074856000005</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -43412,7 +43256,7 @@
         <v>13.24264856000005</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -43445,7 +43289,7 @@
         <v>13.42444856000006</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -43478,7 +43322,7 @@
         <v>12.30594856000005</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -43511,7 +43355,7 @@
         <v>12.45304856000005</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -43544,7 +43388,7 @@
         <v>12.45304856000005</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -43577,7 +43421,7 @@
         <v>14.54254856000005</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -43610,7 +43454,7 @@
         <v>14.59984856000005</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -43643,7 +43487,7 @@
         <v>14.59984856000005</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -43676,7 +43520,7 @@
         <v>9.125648560000053</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -43709,7 +43553,7 @@
         <v>9.150848560000053</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -43742,7 +43586,7 @@
         <v>10.41354856000005</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -43775,7 +43619,7 @@
         <v>10.10074856000005</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -43808,7 +43652,7 @@
         <v>11.49634856000005</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -43841,7 +43685,7 @@
         <v>11.45534856000005</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -43874,7 +43718,7 @@
         <v>13.00568612000005</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -43907,7 +43751,7 @@
         <v>14.63868612000005</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -43940,7 +43784,7 @@
         <v>19.72808612000005</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -43973,7 +43817,7 @@
         <v>19.72808612000005</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44006,7 +43850,7 @@
         <v>14.81428612000005</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44039,7 +43883,7 @@
         <v>16.94378607000005</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44072,7 +43916,7 @@
         <v>27.85631409000005</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44105,7 +43949,7 @@
         <v>30.46131409000006</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44237,7 +44081,7 @@
         <v>50.56229541000006</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -44270,7 +44114,7 @@
         <v>50.86676097000006</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -44303,7 +44147,7 @@
         <v>52.33766097000006</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -44336,7 +44180,7 @@
         <v>55.30676358000006</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -44369,7 +44213,7 @@
         <v>40.61166358000006</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -44402,7 +44246,7 @@
         <v>34.68526358000005</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -44435,7 +44279,7 @@
         <v>33.60456358000005</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -44468,7 +44312,7 @@
         <v>34.40127841000005</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -44501,7 +44345,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -44534,7 +44378,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -44567,7 +44411,7 @@
         <v>37.62907841000005</v>
       </c>
       <c r="H1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -44600,7 +44444,7 @@
         <v>44.24657841000005</v>
       </c>
       <c r="H1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -44633,7 +44477,7 @@
         <v>42.29498898000005</v>
       </c>
       <c r="H1328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -44666,7 +44510,7 @@
         <v>46.13622632000005</v>
       </c>
       <c r="H1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -44699,7 +44543,7 @@
         <v>43.94110048000005</v>
       </c>
       <c r="H1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -44732,7 +44576,7 @@
         <v>44.49210048000005</v>
       </c>
       <c r="H1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -44765,7 +44609,7 @@
         <v>43.93620048000005</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -44798,7 +44642,7 @@
         <v>44.89355268000005</v>
       </c>
       <c r="H1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -44831,7 +44675,7 @@
         <v>43.27065268000005</v>
       </c>
       <c r="H1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -44864,7 +44708,7 @@
         <v>40.00645268000005</v>
       </c>
       <c r="H1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -44897,7 +44741,7 @@
         <v>42.06265268000004</v>
       </c>
       <c r="H1336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -44930,7 +44774,7 @@
         <v>44.76325268000004</v>
       </c>
       <c r="H1337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -44963,7 +44807,7 @@
         <v>44.63545268000004</v>
       </c>
       <c r="H1338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -44996,7 +44840,7 @@
         <v>44.70665270000004</v>
       </c>
       <c r="H1339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
@@ -45029,7 +44873,7 @@
         <v>46.52125268000004</v>
       </c>
       <c r="H1340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
@@ -45062,7 +44906,7 @@
         <v>50.24651812000004</v>
       </c>
       <c r="H1341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
@@ -45172,6 +45016,6 @@
       <c r="M1344" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BTC.xlsx
+++ b/BackTest/2020-01-25 BackTest BTC.xlsx
@@ -37873,56 +37873,50 @@
         <v>-62.07060895999997</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>9631000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr">
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>9632000</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>9632000</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>9632000</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>9624000</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>2.6775</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>-62.07060895999997</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>9632000</v>
+      </c>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="1" t="n">
-        <v>1135</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>9632000</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>9632000</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>9632000</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>9624000</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>2.6775</v>
-      </c>
-      <c r="G1137" t="n">
-        <v>-62.07060895999997</v>
-      </c>
-      <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>9632000</v>
-      </c>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37951,9 +37945,11 @@
         <v>-64.86650895999996</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>9632000</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38651,9 +38647,11 @@
         <v>-62.79453783999995</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9655000</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -38688,9 +38686,11 @@
         <v>-61.93343783999995</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9648000</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39317,18 +39317,16 @@
         <v>45.11756304000004</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1174" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1174" t="inlineStr"/>
       <c r="M1174" t="inlineStr"/>
     </row>
     <row r="1175">
@@ -39358,11 +39356,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39391,15 +39385,11 @@
         <v>49.12409723000004</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39428,15 +39418,11 @@
         <v>54.96549723000004</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39465,15 +39451,11 @@
         <v>50.66288586000004</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39502,15 +39484,11 @@
         <v>49.41238581000004</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39539,15 +39517,11 @@
         <v>39.72388581000004</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39576,15 +39550,11 @@
         <v>20.66848581000004</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39613,15 +39583,11 @@
         <v>15.91106867000004</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39650,15 +39616,11 @@
         <v>7.847668670000042</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39687,15 +39649,11 @@
         <v>7.409068630000042</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39728,11 +39686,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39765,11 +39719,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39802,11 +39752,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39839,11 +39785,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39876,11 +39818,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39913,11 +39851,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39950,11 +39884,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39987,11 +39917,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40020,16 +39946,14 @@
         <v>10.09845111000005</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr"/>
+      <c r="L1193" t="n">
+        <v>1</v>
+      </c>
       <c r="M1193" t="inlineStr"/>
     </row>
     <row r="1194">
@@ -40055,7 +39979,7 @@
         <v>18.50254765000005</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -40088,7 +40012,7 @@
         <v>25.64364698000005</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -40121,7 +40045,7 @@
         <v>32.77795574000005</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -40154,7 +40078,7 @@
         <v>43.71341018000005</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -40187,7 +40111,7 @@
         <v>29.90706072000005</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -40220,7 +40144,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -40253,7 +40177,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -40352,7 +40276,7 @@
         <v>-14.26588255999995</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -42035,7 +41959,7 @@
         <v>13.06574290000006</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42068,7 +41992,7 @@
         <v>10.00744290000006</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42101,7 +42025,7 @@
         <v>13.27664287000006</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42200,7 +42124,7 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -42233,7 +42157,7 @@
         <v>15.18345296000006</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -42266,7 +42190,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -42299,7 +42223,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -42332,7 +42256,7 @@
         <v>13.49685707000006</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43982,7 +43906,7 @@
         <v>53.64931409000005</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44015,7 +43939,7 @@
         <v>45.48839544000005</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -44048,7 +43972,7 @@
         <v>48.07539544000006</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -44081,7 +44005,7 @@
         <v>50.56229541000006</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -44114,7 +44038,7 @@
         <v>50.86676097000006</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -44147,7 +44071,7 @@
         <v>52.33766097000006</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -44180,7 +44104,7 @@
         <v>55.30676358000006</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -44213,7 +44137,7 @@
         <v>40.61166358000006</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -44246,7 +44170,7 @@
         <v>34.68526358000005</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -44279,7 +44203,7 @@
         <v>33.60456358000005</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -44312,7 +44236,7 @@
         <v>34.40127841000005</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -44345,7 +44269,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -44378,7 +44302,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -44411,7 +44335,7 @@
         <v>37.62907841000005</v>
       </c>
       <c r="H1326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -44444,7 +44368,7 @@
         <v>44.24657841000005</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -44477,7 +44401,7 @@
         <v>42.29498898000005</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -44510,7 +44434,7 @@
         <v>46.13622632000005</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -44543,7 +44467,7 @@
         <v>43.94110048000005</v>
       </c>
       <c r="H1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -44576,7 +44500,7 @@
         <v>44.49210048000005</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -44609,7 +44533,7 @@
         <v>43.93620048000005</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -44642,7 +44566,7 @@
         <v>44.89355268000005</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -44675,7 +44599,7 @@
         <v>43.27065268000005</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -44708,7 +44632,7 @@
         <v>40.00645268000005</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -44741,7 +44665,7 @@
         <v>42.06265268000004</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
@@ -44774,7 +44698,7 @@
         <v>44.76325268000004</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
@@ -44807,7 +44731,7 @@
         <v>44.63545268000004</v>
       </c>
       <c r="H1338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
@@ -44840,7 +44764,7 @@
         <v>44.70665270000004</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
@@ -44873,7 +44797,7 @@
         <v>46.52125268000004</v>
       </c>
       <c r="H1340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
@@ -44906,7 +44830,7 @@
         <v>50.24651812000004</v>
       </c>
       <c r="H1341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
@@ -44939,7 +44863,7 @@
         <v>45.28549824000004</v>
       </c>
       <c r="H1342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
@@ -44972,7 +44896,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
@@ -45005,7 +44929,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
